--- a/test.xlsx
+++ b/test.xlsx
@@ -24,9 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ceci est la versio initiale</t>
+  </si>
+  <si>
+    <t>ajout version 2</t>
   </si>
 </sst>
 </file>
@@ -344,10 +347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -372,6 +375,26 @@
         <v>30</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\SHARED\club-iEES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\club-iees\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,12 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>ceci est la versio initiale</t>
   </si>
   <si>
     <t>ajout version 2</t>
+  </si>
+  <si>
+    <t>version 3</t>
   </si>
 </sst>
 </file>
@@ -347,10 +350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -362,7 +365,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>10</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
@@ -393,6 +396,26 @@
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
